--- a/BigPicture/Assets/Resources/DataSheets/MonsterElement.xlsx
+++ b/BigPicture/Assets/Resources/DataSheets/MonsterElement.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,67 @@
   </si>
   <si>
     <t>EyeSight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job1</t>
+  </si>
+  <si>
+    <t>Job2</t>
+  </si>
+  <si>
+    <t>Job3</t>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞잡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱2 지원1 앞1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱1 지원2 앞2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +593,7 @@
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -601,8 +662,14 @@
       <c r="K2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -636,8 +703,14 @@
       <c r="K3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -672,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -707,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -741,8 +814,14 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -776,8 +855,14 @@
       <c r="K7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -811,8 +896,14 @@
       <c r="K8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -845,13 +936,36 @@
       </c>
       <c r="K9">
         <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>